--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>215120.920473057</v>
+        <v>213233.3389566551</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>4.293791544795874</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>132.0891079774768</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -747,7 +747,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933841</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.5310119231965</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>213.9154470216037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -947,7 +947,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>212.8549106699265</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>180.5406932756204</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>33.77936158462987</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>122.5935461816078</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,13 +1136,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>312.3937252350512</v>
+        <v>285.8187198436217</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>96.18663114486743</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>146.2546375217501</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>20.04232573950502</v>
       </c>
       <c r="X13" t="n">
-        <v>20.2397217868188</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1622,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385028</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>106.8563186022167</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>73.50096938092123</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952497991</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>118.4898845065118</v>
+        <v>123.8159420274849</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2132,13 +2132,13 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1537278750033</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>145.4683632455826</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>121.9584523686044</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151919</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505273872</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>166.3436523797878</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>118.4898845065121</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>124.6287235533804</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700706</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965517</v>
+        <v>93.41221638965547</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>36.60092856328662</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>111.2903118348207</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897894</v>
+        <v>93.71057173897924</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571509</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523562</v>
+        <v>54.76109577523589</v>
       </c>
       <c r="S31" t="n">
-        <v>71.15307403051541</v>
+        <v>142.7175533550464</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298324</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700201</v>
+        <v>231.0340957700205</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952708</v>
+        <v>196.9343866952711</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080338</v>
+        <v>231.3197417080341</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604803</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
         <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789509</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1409.658350833669</v>
+        <v>1040.216121848822</v>
       </c>
       <c r="C2" t="n">
-        <v>1040.695833893257</v>
+        <v>1040.216121848822</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>681.9504232420718</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>681.9504232420718</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4358,7 +4358,7 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520779</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
         <v>2169.72394915887</v>
@@ -4367,13 +4367,13 @@
         <v>2169.72394915887</v>
       </c>
       <c r="W2" t="n">
-        <v>2169.72394915887</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X2" t="n">
-        <v>1796.25819089779</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="Y2" t="n">
-        <v>1796.25819089779</v>
+        <v>1426.815961912944</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961344</v>
@@ -4404,7 +4404,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4422,13 +4422,13 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
         <v>2646.935720430048</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610024</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610024</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W4" t="n">
-        <v>438.9553738610024</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1533.27522618254</v>
+        <v>1579.049931616194</v>
       </c>
       <c r="C5" t="n">
-        <v>1164.312709242129</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G5" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2250.937953590233</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U5" t="n">
-        <v>2250.937953590233</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V5" t="n">
-        <v>1919.875066246662</v>
+        <v>2134.880026519314</v>
       </c>
       <c r="W5" t="n">
-        <v>1919.875066246662</v>
+        <v>1952.515689877274</v>
       </c>
       <c r="X5" t="n">
-        <v>1919.875066246662</v>
+        <v>1579.049931616194</v>
       </c>
       <c r="Y5" t="n">
-        <v>1919.875066246662</v>
+        <v>1579.049931616194</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4674,13 +4674,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207637</v>
@@ -4689,7 +4689,7 @@
         <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.8560754027576</v>
+        <v>257.0633493392339</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>257.0633493392339</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>257.0633493392339</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.0633493392339</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.0633493392339</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>88.06354907756634</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4762,13 +4762,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X7" t="n">
-        <v>604.2971193765273</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y7" t="n">
-        <v>383.5045402329973</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>940.9219833362306</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="C8" t="n">
-        <v>940.9219833362306</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="D8" t="n">
-        <v>940.9219833362306</v>
+        <v>914.0785435469079</v>
       </c>
       <c r="E8" t="n">
-        <v>940.9219833362306</v>
+        <v>914.0785435469079</v>
       </c>
       <c r="F8" t="n">
         <v>625.3727659270879</v>
@@ -4799,55 +4799,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573122</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X8" t="n">
-        <v>1331.061315312042</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y8" t="n">
-        <v>940.9219833362306</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.5356891811371</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>268.5356891811371</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>268.5356891811371</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>268.5356891811371</v>
+        <v>580.3970271137575</v>
       </c>
       <c r="W10" t="n">
-        <v>268.5356891811371</v>
+        <v>580.3970271137575</v>
       </c>
       <c r="X10" t="n">
-        <v>268.5356891811371</v>
+        <v>580.3970271137575</v>
       </c>
       <c r="Y10" t="n">
-        <v>268.5356891811371</v>
+        <v>359.6044479702274</v>
       </c>
     </row>
     <row r="11">
@@ -5018,46 +5018,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155881</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,22 +5066,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1346.676219880508</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>713.5778697504956</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C13" t="n">
-        <v>544.6416868225887</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D13" t="n">
-        <v>394.5250474102529</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>394.5250474102529</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5227,22 +5227,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609663</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>731.3177283550795</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150548</v>
+        <v>711.072954880832</v>
       </c>
       <c r="X13" t="n">
-        <v>934.3704488940257</v>
+        <v>711.072954880832</v>
       </c>
       <c r="Y13" t="n">
-        <v>713.5778697504956</v>
+        <v>711.072954880832</v>
       </c>
     </row>
     <row r="14">
@@ -5258,52 +5258,52 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>584.4452354807079</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>415.509052552801</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1390.980595202128</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1390.980595202128</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>1101.851956415686</v>
+        <v>874.9271131227921</v>
       </c>
       <c r="V16" t="n">
-        <v>1101.851956415686</v>
+        <v>620.2426249169052</v>
       </c>
       <c r="W16" t="n">
-        <v>812.4347863787252</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>584.4452354807079</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>584.4452354807079</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155902</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5537,28 +5537,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5583,34 +5583,34 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>412.607977814708</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>659.373105721172</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1379.229518531123</v>
+        <v>1262.774559011158</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>973.645920224716</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>718.9614320188291</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>429.5442619818684</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>429.5442619818684</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="20">
@@ -5750,28 +5750,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>485.5200852635878</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5911,10 +5911,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471192</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>951.7747876811821</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>723.7852367831648</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>723.7852367831648</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6011,28 +6011,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6148,13 +6148,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471195</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>898.7925182488392</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>898.7925182488392</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>609.3753482118786</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>609.3753482118786</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>388.5827690683485</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550601</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610189</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405194</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155868</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805449</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822441</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231262</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141866</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851614</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590534</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614723</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636248</v>
+        <v>891.4406401619849</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028581</v>
+        <v>527.1935825831099</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028581</v>
+        <v>359.1696912903949</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028581</v>
+        <v>359.1696912903949</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028581</v>
+        <v>359.1696912903949</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028581</v>
+        <v>359.1696912903949</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028581</v>
+        <v>359.1696912903949</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028581</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557904</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557904</v>
       </c>
       <c r="S28" t="n">
-        <v>1379.229518531122</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="T28" t="n">
-        <v>1379.229518531122</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="U28" t="n">
-        <v>1090.100879744681</v>
+        <v>1009.867621687014</v>
       </c>
       <c r="V28" t="n">
-        <v>835.4163915387938</v>
+        <v>755.1831334811272</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>755.1831334811272</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>527.1935825831099</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028581</v>
+        <v>527.1935825831099</v>
       </c>
     </row>
     <row r="29">
@@ -6449,49 +6449,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619849</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>511.8197828072805</v>
+        <v>604.5641438163748</v>
       </c>
       <c r="C31" t="n">
-        <v>398.6444651607445</v>
+        <v>491.3888261698385</v>
       </c>
       <c r="D31" t="n">
-        <v>304.2886910297797</v>
+        <v>397.0330520388733</v>
       </c>
       <c r="E31" t="n">
-        <v>304.2886910297797</v>
+        <v>360.0624171264626</v>
       </c>
       <c r="F31" t="n">
-        <v>304.2886910297797</v>
+        <v>360.0624171264626</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309712</v>
+        <v>247.6479607276538</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>152.9908175569678</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864669</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667506</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.6688721962046</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1808.940032949255</v>
+        <v>1736.652680096192</v>
       </c>
       <c r="T31" t="n">
-        <v>1640.915483020132</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1407.547709515061</v>
+        <v>1335.260356661997</v>
       </c>
       <c r="V31" t="n">
-        <v>1208.624086590545</v>
+        <v>1136.336733737481</v>
       </c>
       <c r="W31" t="n">
-        <v>974.9677818349555</v>
+        <v>902.6804289818911</v>
       </c>
       <c r="X31" t="n">
-        <v>802.7390962183091</v>
+        <v>730.4517433652438</v>
       </c>
       <c r="Y31" t="n">
-        <v>637.7073823561493</v>
+        <v>730.4517433652438</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6698,10 +6698,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6795,10 +6795,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229667</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504507</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
@@ -6923,13 +6923,13 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7032,10 +7032,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7075,31 +7075,31 @@
         <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7135,7 +7135,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
         <v>772.2886129010318</v>
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,40 +7163,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
         <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>1163.495507227045</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M39" t="n">
-        <v>1470.815640507006</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N39" t="n">
-        <v>1800.678268171039</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O39" t="n">
-        <v>2080.218333389736</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D40" t="n">
         <v>478.0475988506722</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504508</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982967</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525394</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254951</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649686</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O40" t="n">
         <v>1688.186490350129</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7403,16 +7403,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7427,10 +7427,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G43" t="n">
         <v>221.5295092103124</v>
@@ -7564,16 +7564,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1163.495507227045</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M45" t="n">
-        <v>1470.815640507006</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N45" t="n">
-        <v>1800.678268171039</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O45" t="n">
-        <v>2080.218333389736</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525397</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649689</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8070,13 +8070,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,19 +8778,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>176.717654749845</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9243,28 +9243,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>283.6093329825493</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>199.7396287231157</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,10 +9495,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298111</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>234.4116509503157</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,10 +10191,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>234.4116509503157</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10905,7 +10905,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,13 +10914,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P39" t="n">
-        <v>253.7371603504743</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11151,16 +11151,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,10 +11391,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>253.7371603504743</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23467,22 +23467,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>266.480672597086</v>
       </c>
       <c r="X13" t="n">
-        <v>205.4699336022184</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,10 +23653,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>91.06449138138653</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>213.0220289556698</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0576765518774</v>
+        <v>97.7316190309044</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338594</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>141.0546350910084</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>57.87352781333286</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338582</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0.903168718839936</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S28" t="n">
-        <v>79.43092547709114</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24844,10 +24844,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801199</v>
+        <v>54.62977745472566</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437406</v>
+        <v>90.21779139437436</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571481</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>71.56447932453065</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235379</v>
       </c>
     </row>
     <row r="32">
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>3.836930773104541e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26314,31 +26314,31 @@
         <v>307890.6636991064</v>
       </c>
       <c r="C2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991064</v>
       </c>
       <c r="D2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991065</v>
       </c>
       <c r="E2" t="n">
+        <v>293271.7948032813</v>
+      </c>
+      <c r="F2" t="n">
+        <v>293271.7948032814</v>
+      </c>
+      <c r="G2" t="n">
         <v>293271.7948032815</v>
-      </c>
-      <c r="F2" t="n">
-        <v>293271.7948032813</v>
-      </c>
-      <c r="G2" t="n">
-        <v>293271.7948032814</v>
       </c>
       <c r="H2" t="n">
         <v>293271.7948032814</v>
       </c>
       <c r="I2" t="n">
-        <v>293271.7948032813</v>
+        <v>293271.7948032815</v>
       </c>
       <c r="J2" t="n">
-        <v>293271.7948032814</v>
+        <v>293271.7948032815</v>
       </c>
       <c r="K2" t="n">
-        <v>305116.6030089527</v>
+        <v>305116.6030089521</v>
       </c>
       <c r="L2" t="n">
         <v>307890.6636991062</v>
@@ -26347,10 +26347,10 @@
         <v>307890.6636991063</v>
       </c>
       <c r="N2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991061</v>
       </c>
       <c r="O2" t="n">
-        <v>307890.6636991062</v>
+        <v>307890.6636991061</v>
       </c>
       <c r="P2" t="n">
         <v>307890.6636991063</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.695895773285884e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.42310613632435e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284575</v>
+        <v>44162.60530284546</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086677</v>
+        <v>10342.90680086679</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284576</v>
+        <v>44162.60530284548</v>
       </c>
     </row>
     <row r="4">
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>147917.0487159209</v>
+      </c>
+      <c r="C4" t="n">
+        <v>147917.0487159209</v>
+      </c>
+      <c r="D4" t="n">
         <v>147917.0487159208</v>
-      </c>
-      <c r="C4" t="n">
-        <v>147917.0487159208</v>
-      </c>
-      <c r="D4" t="n">
-        <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007497</v>
+        <v>7916.731656007442</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007571</v>
+        <v>7916.73165600748</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007501</v>
+        <v>7916.731656007478</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007574</v>
+        <v>7916.731656007481</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020406</v>
+        <v>26081.35417020395</v>
       </c>
       <c r="L4" t="n">
+        <v>30335.51889732798</v>
+      </c>
+      <c r="M4" t="n">
         <v>30335.51889732797</v>
       </c>
-      <c r="M4" t="n">
-        <v>30335.51889732794</v>
-      </c>
       <c r="N4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732798</v>
       </c>
       <c r="O4" t="n">
         <v>30335.51889732797</v>
@@ -26467,34 +26467,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871659</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022282</v>
+        <v>96628.20853022278</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
@@ -26503,13 +26503,13 @@
         <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="O5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="P5" t="n">
         <v>97715.1058200254</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.1058200254</v>
-      </c>
-      <c r="P5" t="n">
-        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26522,31 +26522,31 @@
         <v>-512853.3422947684</v>
       </c>
       <c r="C6" t="n">
-        <v>77114.53691977597</v>
+        <v>77114.53691977606</v>
       </c>
       <c r="D6" t="n">
-        <v>77114.53691977594</v>
+        <v>77114.53691977622</v>
       </c>
       <c r="E6" t="n">
-        <v>-331792.2992783387</v>
+        <v>-331889.7584043111</v>
       </c>
       <c r="F6" t="n">
-        <v>193367.7371985572</v>
+        <v>193270.2780725848</v>
       </c>
       <c r="G6" t="n">
-        <v>193367.7371985572</v>
+        <v>193270.2780725852</v>
       </c>
       <c r="H6" t="n">
-        <v>193367.7371985572</v>
+        <v>193270.2780725854</v>
       </c>
       <c r="I6" t="n">
-        <v>193367.7371985572</v>
+        <v>193270.2780725849</v>
       </c>
       <c r="J6" t="n">
-        <v>16944.5180059644</v>
+        <v>16847.0588799922</v>
       </c>
       <c r="K6" t="n">
-        <v>138244.4350056801</v>
+        <v>138225.9412677455</v>
       </c>
       <c r="L6" t="n">
         <v>169497.1321808861</v>
@@ -26555,13 +26555,13 @@
         <v>45039.02374791569</v>
       </c>
       <c r="N6" t="n">
-        <v>179840.0389817529</v>
+        <v>179840.0389817528</v>
       </c>
       <c r="O6" t="n">
         <v>179840.0389817528</v>
       </c>
       <c r="P6" t="n">
-        <v>135677.4336789071</v>
+        <v>135677.4336789074</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="O2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964065</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964062</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26735,34 +26735,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="C4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="C4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108347</v>
+        <v>12.92863350108379</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855685</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855682</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>350.3892500758871</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>274.7869377642346</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>56.93405031343801</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>11.79420836743344</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>3.593409687731253</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,10 +27676,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>168.7002754417926</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27780,16 +27780,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>122.3915272571653</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>103.1161092074294</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,13 +27856,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>94.48232050666019</v>
+        <v>121.0573258980897</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>128.8484743132169</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>105.8830058020779</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.927418225022848e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28852,13 +28852,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.4210854715202e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29293,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855688</v>
       </c>
     </row>
     <row r="32">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="41">
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,16 +35258,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>509.9122281478579</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>594.0337100330155</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>350.3150673110549</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
@@ -36215,10 +36215,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
         <v>59.82538970349674</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>483.6693559063401</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556562</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>483.6693559063401</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941227</v>
+        <v>67.71102679412243</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075294</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043193</v>
+        <v>94.42895660043166</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37163,13 +37163,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37549,7 +37549,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37625,7 +37625,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
@@ -37634,13 +37634,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P39" t="n">
-        <v>460.8305752819989</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520614</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37871,16 +37871,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38023,7 +38023,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38111,10 +38111,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>460.8305752819989</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
